--- a/flows/BGLD_fund_flow_data.xlsx
+++ b/flows/BGLD_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B782"/>
+  <dimension ref="A1:B799"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8255,6 +8255,176 @@
         <v>-5.5389</v>
       </c>
     </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B783" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B784" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B785" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B786" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B787" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B788" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B789" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B790" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B791" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B792" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B793" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B794" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B795" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B796" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B797" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B798" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B799" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
